--- a/Raw_Data/F037_For_PR_DME.xlsx
+++ b/Raw_Data/F037_For_PR_DME.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Doc. No</t>
   </si>
@@ -66,17 +66,20 @@
   <si>
     <t>2024-04</t>
   </si>
+  <si>
+    <t>25.08.2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -127,6 +130,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -135,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,43 +169,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -202,6 +183,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -234,6 +222,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -243,20 +246,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -270,6 +259,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -286,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,17 +804,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,6 +823,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -846,35 +862,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,148 +908,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,10 +1073,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1723,7 +1726,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B13" sqref="B13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -1842,7 +1845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="15.25" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" s="27"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -1872,20 +1875,30 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="35"/>
+      <c r="A13" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="B13" s="36">
         <f>F12</f>
         <v>66</v>
       </c>
       <c r="C13" s="37"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="33"/>
+      <c r="F13" s="33">
+        <f>B13-D13</f>
+        <v>62</v>
+      </c>
       <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
+      <c r="B14" s="36">
+        <f>F13</f>
+        <v>62</v>
+      </c>
       <c r="C14" s="37"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>

--- a/Raw_Data/F037_For_PR_DME.xlsx
+++ b/Raw_Data/F037_For_PR_DME.xlsx
@@ -7,10 +7,10 @@
     <workbookView windowWidth="19190" windowHeight="7670"/>
   </bookViews>
   <sheets>
-    <sheet name="Uncut_Sheet" sheetId="3" r:id="rId1"/>
+    <sheet name="Uncut_Sheet_1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Uncut_Sheet!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Uncut_Sheet_1!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -75,11 +75,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -130,6 +130,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -138,22 +160,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +191,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -175,14 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -222,13 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,9 +253,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,28 +273,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -289,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,6 +804,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,6 +832,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -838,15 +862,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -882,21 +897,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -908,148 +908,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,10 +1073,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C14"/>
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -1845,7 +1845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" ht="15.25" spans="1:7">
       <c r="A11" s="27"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>

--- a/Raw_Data/F037_For_PR_DME.xlsx
+++ b/Raw_Data/F037_For_PR_DME.xlsx
@@ -1,42 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Mediven_Raw_Material_Stock_Card\Raw_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE45C7EB-CC2A-44C2-B463-9EAE95C9C826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19190" windowHeight="7670"/>
   </bookViews>
   <sheets>
-    <sheet name="Uncut_Sheet_1" sheetId="3" r:id="rId1"/>
+    <sheet name="Uncut_Sheet_1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Uncut_Sheet_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Uncut_Sheet_1!$A$1:$H$42</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Doc. No</t>
   </si>
@@ -53,13 +34,19 @@
     <t>RM Name</t>
   </si>
   <si>
-    <t>PR-DAM</t>
+    <t>PR-DME</t>
   </si>
   <si>
     <t>UOM</t>
   </si>
   <si>
     <t>50 TESTS/BOX</t>
+  </si>
+  <si>
+    <t>COMPONENTS</t>
+  </si>
+  <si>
+    <t>UNCUT SHEET</t>
   </si>
   <si>
     <t>Year</t>
@@ -77,6 +64,9 @@
     <t>Balance Quantity</t>
   </si>
   <si>
+    <t>Exp Date</t>
+  </si>
+  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -92,11 +82,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +138,152 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +296,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -187,6 +511,15 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -209,76 +542,150 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -288,83 +695,31 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -373,11 +728,117 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -417,10 +878,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -434,33 +893,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -492,157 +925,506 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -658,19 +1440,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -696,31 +1472,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781685</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847975" y="47625"/>
-          <a:ext cx="3322320" cy="320675"/>
+          <a:off x="2835275" y="6350"/>
+          <a:ext cx="4116705" cy="320675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1134,528 +1904,581 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+    <col min="8" max="8" width="11.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
         <v>41473</v>
       </c>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="34" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" ht="15.25" spans="1:8">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="35"/>
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" ht="15.25" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="35"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="36"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" ht="15.25" spans="1:8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42" t="s">
+      <c r="G8" s="24">
+        <v>2022</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="39" t="s">
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="38"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A12" s="10" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="25">
+      <c r="G10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" ht="16.25" spans="1:8">
+      <c r="A12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37">
         <v>70</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39">
         <v>4</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="11">
+      <c r="E12" s="39"/>
+      <c r="F12" s="40">
         <f>B12-D12</f>
         <v>66</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="28">
+      <c r="G12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="43">
         <f>F12</f>
         <v>66</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30">
+      <c r="C13" s="44"/>
+      <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="11">
+      <c r="E13" s="1"/>
+      <c r="F13" s="40">
         <f>B13-D13</f>
         <v>62</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="G13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="13"/>
-      <c r="B14" s="28">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43">
         <f>F13</f>
         <v>62</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="13"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="13"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="13"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="13"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="13"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="13"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="13"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="13"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="13"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="13"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="13"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="13"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="13"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="13"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="13"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="13"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="13"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="13"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="13"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="13"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="13"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="13"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="13"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="13"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="13"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="14"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="43"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="43"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="43"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="43"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="43"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="43"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="43"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="43"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="43"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="43"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="43"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="43"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="43"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="43"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="43"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="43"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="43"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="43"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" ht="15.25" spans="1:8">
+      <c r="A42" s="43"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
+  <mergeCells count="79">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:H2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>